--- a/data/trans_orig/P14C15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB0BF85-9CF6-4E9F-A4F4-FA043D73AA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF60976-E5C4-4BB9-81A4-6B3D0A984DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F8A0C55-CF71-4BB3-BB5A-E5CCA3F26F8C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8255E93C-EA81-4214-9DA7-B785145D339E}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <t>52,82%</t>
   </si>
   <si>
-    <t>15,78%</t>
+    <t>16,4%</t>
   </si>
   <si>
     <t>86,16%</t>
@@ -116,34 +116,34 @@
     <t>58,72%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>79,62%</t>
+    <t>79,63%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>69,27%</t>
+    <t>67,96%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>70,05%</t>
+    <t>69,74%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>64,95%</t>
+    <t>62,01%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -152,49 +152,49 @@
     <t>88,35%</t>
   </si>
   <si>
-    <t>52,83%</t>
+    <t>52,5%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>47,17%</t>
+    <t>47,5%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -203,19 +203,19 @@
     <t>25,69%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -227,19 +227,19 @@
     <t>70,02%</t>
   </si>
   <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -248,25 +248,28 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>44,45%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>37,19%</t>
+    <t>34,61%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>46,34%</t>
+    <t>39,9%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>39,35%</t>
+    <t>33,63%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -275,16 +278,16 @@
     <t>86,61%</t>
   </si>
   <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>59,65%</t>
   </si>
   <si>
-    <t>28,99%</t>
+    <t>28,64%</t>
   </si>
   <si>
     <t>89,95%</t>
@@ -293,127 +296,124 @@
     <t>77,5%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>22,45%</t>
+    <t>23,5%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
+    <t>61,3%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>28,35%</t>
+    <t>30,42%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>40,88%</t>
+    <t>41,48%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>72,48%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>18,72%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>9,48%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>16,4%</t>
+    <t>17,09%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E47D21A-0183-4626-A7BE-353B050F5636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FECC1E-B041-4986-9834-F9D7D24F959E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1639,10 +1639,10 @@
         <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1651,13 +1651,13 @@
         <v>3458</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,13 +1687,13 @@
         <v>2137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1702,13 +1702,13 @@
         <v>2137</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1776,13 +1776,13 @@
         <v>17137</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1791,13 +1791,13 @@
         <v>6022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -1806,13 +1806,13 @@
         <v>23160</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1827,13 @@
         <v>865</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1842,10 +1842,10 @@
         <v>3054</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>91</v>
@@ -2000,10 +2000,10 @@
         <v>105</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -2012,13 +2012,13 @@
         <v>65879</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2033,13 @@
         <v>1941</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2048,13 +2048,13 @@
         <v>12784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2063,13 +2063,13 @@
         <v>14725</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14C15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C15-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EF60976-E5C4-4BB9-81A4-6B3D0A984DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6A368CD-A86A-4789-8CE1-485D676D0928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8255E93C-EA81-4214-9DA7-B785145D339E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{248AD9B2-8950-42C6-B812-0465AB98D40C}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="127">
-  <si>
-    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2015 (Tasa respuesta: 1,34%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
+  <si>
+    <t>Población según el tiempo de diagnóstico del problemas crónicos de la piel en 2016 (Tasa respuesta: 1,34%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -101,100 +101,100 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>52,82%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>29,61%</t>
   </si>
   <si>
-    <t>79,63%</t>
+    <t>76,68%</t>
   </si>
   <si>
     <t>25,91%</t>
   </si>
   <si>
-    <t>67,96%</t>
+    <t>69,42%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>69,74%</t>
+    <t>73,1%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>88,35%</t>
   </si>
   <si>
-    <t>52,5%</t>
+    <t>49,23%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>63,95%</t>
   </si>
   <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>47,5%</t>
+    <t>50,77%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
   </si>
   <si>
     <t>18,38%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -203,22 +203,22 @@
     <t>25,69%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -227,19 +227,19 @@
     <t>70,02%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -248,28 +248,31 @@
     <t>18,53%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>34,61%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>39,9%</t>
+    <t>47,79%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>33,63%</t>
+    <t>36,59%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -278,142 +281,148 @@
     <t>86,61%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>59,65%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>77,5%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>4,37%</t>
   </si>
   <si>
-    <t>23,5%</t>
+    <t>19,5%</t>
   </si>
   <si>
     <t>30,25%</t>
   </si>
   <si>
-    <t>61,3%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>30,42%</t>
+    <t>29,92%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>41,48%</t>
+    <t>43,04%</t>
   </si>
   <si>
     <t>9,38%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>89,5%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>60,49%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>71,68%</t>
   </si>
   <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>5,47%</t>
   </si>
   <si>
-    <t>18,72%</t>
+    <t>20,24%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>9,48%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>17,09%</t>
+    <t>17,84%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -828,7 +837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FECC1E-B041-4986-9834-F9D7D24F959E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216D0E31-AA71-47D3-A3AD-1D230EE332E4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1654,10 +1663,10 @@
         <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1687,13 +1696,13 @@
         <v>2137</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
@@ -1702,13 +1711,13 @@
         <v>2137</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1764,7 +1773,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1776,13 +1785,13 @@
         <v>17137</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -1791,13 +1800,13 @@
         <v>6022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -1806,13 +1815,13 @@
         <v>23160</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1827,13 +1836,13 @@
         <v>865</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1842,13 +1851,13 @@
         <v>3054</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>4</v>
@@ -1857,13 +1866,13 @@
         <v>3919</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1878,13 +1887,13 @@
         <v>1784</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1893,13 +1902,13 @@
         <v>1020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -1908,13 +1917,13 @@
         <v>2803</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1982,13 +1991,13 @@
         <v>31736</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -1997,13 +2006,13 @@
         <v>34143</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>64</v>
@@ -2012,13 +2021,13 @@
         <v>65879</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,13 +2042,13 @@
         <v>1941</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -2048,13 +2057,13 @@
         <v>12784</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2063,13 +2072,13 @@
         <v>14725</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,13 +2093,13 @@
         <v>1784</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2099,13 +2108,13 @@
         <v>9516</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -2114,13 +2123,13 @@
         <v>11299</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2176,7 +2185,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
